--- a/deuChatbot/test_automation/질의응답시간.xlsx
+++ b/deuChatbot/test_automation/질의응답시간.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minsu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minsu\Desktop\DeuChatbot\deuChatbot\test_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110B78E3-379F-42FE-8A57-101208FC864C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3C9A83-E210-4DC4-BF44-1FB4BAD112C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5D2E948-0913-4547-A6CA-5F9B4C3407B9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="211">
   <si>
     <t>질의</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1351,10 +1351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마음먀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클로드-sonnet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1368,6 +1364,14 @@
   </si>
   <si>
     <t>Qwen1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Llama-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마음ai </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1766,18 +1770,21 @@
         <v>204</v>
       </c>
       <c r="E1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" t="s">
         <v>205</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>206</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>207</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>208</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>209</v>
       </c>
       <c r="K1" t="s">
@@ -1812,6 +1819,9 @@
       <c r="H2">
         <v>22.36</v>
       </c>
+      <c r="I2">
+        <v>154.15</v>
+      </c>
       <c r="K2" t="s">
         <v>2</v>
       </c>
@@ -1844,6 +1854,9 @@
       <c r="H3">
         <v>11.66</v>
       </c>
+      <c r="I3">
+        <v>154.97999999999999</v>
+      </c>
       <c r="K3" t="s">
         <v>4</v>
       </c>
@@ -1876,6 +1889,9 @@
       <c r="H4">
         <v>3.38</v>
       </c>
+      <c r="I4">
+        <v>66.14</v>
+      </c>
       <c r="K4" t="s">
         <v>6</v>
       </c>
@@ -1908,6 +1924,9 @@
       <c r="H5">
         <v>3.12</v>
       </c>
+      <c r="I5">
+        <v>65.41</v>
+      </c>
       <c r="K5" t="s">
         <v>8</v>
       </c>
@@ -1940,6 +1959,9 @@
       <c r="H6">
         <v>3.6</v>
       </c>
+      <c r="I6">
+        <v>121.08</v>
+      </c>
       <c r="K6" t="s">
         <v>10</v>
       </c>
@@ -1972,6 +1994,9 @@
       <c r="H7">
         <v>6.79</v>
       </c>
+      <c r="I7">
+        <v>94.22</v>
+      </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
@@ -2004,6 +2029,9 @@
       <c r="H8">
         <v>6.81</v>
       </c>
+      <c r="I8">
+        <v>128.24</v>
+      </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
@@ -2036,6 +2064,9 @@
       <c r="H9">
         <v>4.4000000000000004</v>
       </c>
+      <c r="I9">
+        <v>58.67</v>
+      </c>
       <c r="K9" t="s">
         <v>16</v>
       </c>
@@ -2068,6 +2099,9 @@
       <c r="H10">
         <v>6.14</v>
       </c>
+      <c r="I10">
+        <v>93.42</v>
+      </c>
       <c r="K10" t="s">
         <v>18</v>
       </c>
@@ -2100,6 +2134,9 @@
       <c r="H11">
         <v>3.73</v>
       </c>
+      <c r="I11">
+        <v>66.86</v>
+      </c>
       <c r="K11" t="s">
         <v>20</v>
       </c>
@@ -2132,6 +2169,9 @@
       <c r="H12">
         <v>7.28</v>
       </c>
+      <c r="I12">
+        <v>82.91</v>
+      </c>
       <c r="K12" t="s">
         <v>22</v>
       </c>
@@ -2164,6 +2204,9 @@
       <c r="H13">
         <v>3.07</v>
       </c>
+      <c r="I13">
+        <v>63.77</v>
+      </c>
       <c r="K13" t="s">
         <v>24</v>
       </c>
@@ -2196,6 +2239,9 @@
       <c r="H14">
         <v>5.79</v>
       </c>
+      <c r="I14">
+        <v>89.96</v>
+      </c>
       <c r="K14" t="s">
         <v>26</v>
       </c>
@@ -2228,6 +2274,9 @@
       <c r="H15">
         <v>5.24</v>
       </c>
+      <c r="I15">
+        <v>102.49</v>
+      </c>
       <c r="K15" t="s">
         <v>28</v>
       </c>
@@ -2260,6 +2309,9 @@
       <c r="H16">
         <v>5.7</v>
       </c>
+      <c r="I16">
+        <v>81.28</v>
+      </c>
       <c r="K16" t="s">
         <v>30</v>
       </c>
@@ -2292,6 +2344,9 @@
       <c r="H17">
         <v>4</v>
       </c>
+      <c r="I17">
+        <v>88.74</v>
+      </c>
       <c r="K17" t="s">
         <v>32</v>
       </c>
@@ -2324,6 +2379,9 @@
       <c r="H18">
         <v>7.71</v>
       </c>
+      <c r="I18">
+        <v>92.03</v>
+      </c>
       <c r="K18" t="s">
         <v>34</v>
       </c>
@@ -2356,6 +2414,9 @@
       <c r="H19">
         <v>7.75</v>
       </c>
+      <c r="I19">
+        <v>94.88</v>
+      </c>
       <c r="K19" t="s">
         <v>36</v>
       </c>
@@ -2388,6 +2449,9 @@
       <c r="H20">
         <v>3.21</v>
       </c>
+      <c r="I20">
+        <v>106.76</v>
+      </c>
       <c r="K20" t="s">
         <v>38</v>
       </c>
@@ -2420,6 +2484,9 @@
       <c r="H21">
         <v>3.33</v>
       </c>
+      <c r="I21">
+        <v>64.42</v>
+      </c>
       <c r="K21" t="s">
         <v>40</v>
       </c>
@@ -2452,6 +2519,9 @@
       <c r="H22">
         <v>8.59</v>
       </c>
+      <c r="I22">
+        <v>109.47</v>
+      </c>
       <c r="K22" t="s">
         <v>42</v>
       </c>
@@ -2484,6 +2554,9 @@
       <c r="H23">
         <v>4.17</v>
       </c>
+      <c r="I23">
+        <v>68.56</v>
+      </c>
       <c r="K23" t="s">
         <v>44</v>
       </c>
@@ -2516,6 +2589,9 @@
       <c r="H24">
         <v>4.07</v>
       </c>
+      <c r="I24">
+        <v>109.94</v>
+      </c>
       <c r="K24" t="s">
         <v>46</v>
       </c>
@@ -2548,6 +2624,9 @@
       <c r="H25">
         <v>7</v>
       </c>
+      <c r="I25">
+        <v>94.09</v>
+      </c>
       <c r="K25" t="s">
         <v>48</v>
       </c>
@@ -2580,6 +2659,9 @@
       <c r="H26">
         <v>7.62</v>
       </c>
+      <c r="I26">
+        <v>131.27000000000001</v>
+      </c>
       <c r="K26" t="s">
         <v>50</v>
       </c>
@@ -2612,6 +2694,9 @@
       <c r="H27">
         <v>5.81</v>
       </c>
+      <c r="I27">
+        <v>94.93</v>
+      </c>
       <c r="K27" t="s">
         <v>52</v>
       </c>
@@ -2644,6 +2729,9 @@
       <c r="H28">
         <v>4.43</v>
       </c>
+      <c r="I28">
+        <v>67.53</v>
+      </c>
       <c r="K28" t="s">
         <v>54</v>
       </c>
@@ -2676,6 +2764,9 @@
       <c r="H29">
         <v>5.35</v>
       </c>
+      <c r="I29">
+        <v>112.48</v>
+      </c>
       <c r="K29" t="s">
         <v>56</v>
       </c>
@@ -2708,6 +2799,9 @@
       <c r="H30">
         <v>7.58</v>
       </c>
+      <c r="I30">
+        <v>64.66</v>
+      </c>
       <c r="K30" t="s">
         <v>58</v>
       </c>
@@ -2740,6 +2834,9 @@
       <c r="H31">
         <v>5.69</v>
       </c>
+      <c r="I31">
+        <v>79.819999999999993</v>
+      </c>
       <c r="K31" t="s">
         <v>60</v>
       </c>
@@ -2772,6 +2869,9 @@
       <c r="H32">
         <v>5.53</v>
       </c>
+      <c r="I32">
+        <v>80</v>
+      </c>
       <c r="K32" t="s">
         <v>62</v>
       </c>
@@ -2804,6 +2904,9 @@
       <c r="H33">
         <v>5.87</v>
       </c>
+      <c r="I33">
+        <v>93</v>
+      </c>
       <c r="K33" t="s">
         <v>64</v>
       </c>
@@ -2836,6 +2939,9 @@
       <c r="H34">
         <v>8.48</v>
       </c>
+      <c r="I34">
+        <v>74.56</v>
+      </c>
       <c r="K34" t="s">
         <v>66</v>
       </c>
@@ -2868,6 +2974,9 @@
       <c r="H35">
         <v>5.5</v>
       </c>
+      <c r="I35">
+        <v>117.58</v>
+      </c>
       <c r="K35" t="s">
         <v>68</v>
       </c>
@@ -2900,6 +3009,9 @@
       <c r="H36">
         <v>4.7</v>
       </c>
+      <c r="I36">
+        <v>123.84</v>
+      </c>
       <c r="K36" t="s">
         <v>70</v>
       </c>
@@ -2932,6 +3044,9 @@
       <c r="H37">
         <v>6.35</v>
       </c>
+      <c r="I37">
+        <v>78.349999999999994</v>
+      </c>
       <c r="K37" t="s">
         <v>72</v>
       </c>
@@ -2964,6 +3079,9 @@
       <c r="H38">
         <v>3.96</v>
       </c>
+      <c r="I38">
+        <v>60.54</v>
+      </c>
       <c r="K38" t="s">
         <v>74</v>
       </c>
@@ -2996,6 +3114,9 @@
       <c r="H39">
         <v>4.7300000000000004</v>
       </c>
+      <c r="I39">
+        <v>121.27</v>
+      </c>
       <c r="K39" t="s">
         <v>76</v>
       </c>
@@ -3028,6 +3149,9 @@
       <c r="H40">
         <v>4.28</v>
       </c>
+      <c r="I40">
+        <v>69.39</v>
+      </c>
       <c r="K40" t="s">
         <v>78</v>
       </c>
@@ -3060,6 +3184,9 @@
       <c r="H41">
         <v>5.2</v>
       </c>
+      <c r="I41">
+        <v>82.69</v>
+      </c>
       <c r="K41" t="s">
         <v>80</v>
       </c>
@@ -3092,6 +3219,9 @@
       <c r="H42">
         <v>5.3</v>
       </c>
+      <c r="I42">
+        <v>106.52</v>
+      </c>
       <c r="K42" t="s">
         <v>82</v>
       </c>
@@ -3124,6 +3254,9 @@
       <c r="H43">
         <v>3.82</v>
       </c>
+      <c r="I43">
+        <v>95.43</v>
+      </c>
       <c r="K43" t="s">
         <v>84</v>
       </c>
@@ -3156,6 +3289,9 @@
       <c r="H44">
         <v>3.96</v>
       </c>
+      <c r="I44">
+        <v>129.13</v>
+      </c>
       <c r="K44" t="s">
         <v>86</v>
       </c>
@@ -3188,6 +3324,9 @@
       <c r="H45">
         <v>3.44</v>
       </c>
+      <c r="I45">
+        <v>112.34</v>
+      </c>
       <c r="K45" t="s">
         <v>88</v>
       </c>
@@ -3220,6 +3359,9 @@
       <c r="H46">
         <v>6.57</v>
       </c>
+      <c r="I46">
+        <v>130.04</v>
+      </c>
       <c r="K46" t="s">
         <v>90</v>
       </c>
@@ -3252,6 +3394,9 @@
       <c r="H47">
         <v>5.01</v>
       </c>
+      <c r="I47">
+        <v>70.67</v>
+      </c>
       <c r="K47" t="s">
         <v>92</v>
       </c>
@@ -3284,6 +3429,9 @@
       <c r="H48">
         <v>3.27</v>
       </c>
+      <c r="I48">
+        <v>79.680000000000007</v>
+      </c>
       <c r="K48" t="s">
         <v>93</v>
       </c>
@@ -3316,6 +3464,9 @@
       <c r="H49">
         <v>3.71</v>
       </c>
+      <c r="I49">
+        <v>70.89</v>
+      </c>
       <c r="K49" t="s">
         <v>95</v>
       </c>
@@ -3348,6 +3499,9 @@
       <c r="H50">
         <v>7.26</v>
       </c>
+      <c r="I50">
+        <v>63.59</v>
+      </c>
       <c r="K50" t="s">
         <v>97</v>
       </c>
@@ -3380,6 +3534,9 @@
       <c r="H51">
         <v>3.32</v>
       </c>
+      <c r="I51">
+        <v>117.22</v>
+      </c>
       <c r="K51" t="s">
         <v>99</v>
       </c>
@@ -3412,6 +3569,9 @@
       <c r="H52">
         <v>4.1399999999999997</v>
       </c>
+      <c r="I52">
+        <v>141.54</v>
+      </c>
       <c r="K52" t="s">
         <v>101</v>
       </c>
@@ -3444,6 +3604,9 @@
       <c r="H53">
         <v>8.4499999999999993</v>
       </c>
+      <c r="I53">
+        <v>136.38</v>
+      </c>
       <c r="K53" t="s">
         <v>103</v>
       </c>
@@ -3476,6 +3639,9 @@
       <c r="H54">
         <v>9.58</v>
       </c>
+      <c r="I54">
+        <v>127.42</v>
+      </c>
       <c r="K54" t="s">
         <v>105</v>
       </c>
@@ -3508,6 +3674,9 @@
       <c r="H55">
         <v>4.1100000000000003</v>
       </c>
+      <c r="I55">
+        <v>96.68</v>
+      </c>
       <c r="K55" t="s">
         <v>107</v>
       </c>
@@ -3540,6 +3709,9 @@
       <c r="H56">
         <v>3.53</v>
       </c>
+      <c r="I56">
+        <v>85.34</v>
+      </c>
       <c r="K56" t="s">
         <v>109</v>
       </c>
@@ -3572,6 +3744,9 @@
       <c r="H57">
         <v>3.84</v>
       </c>
+      <c r="I57">
+        <v>115.46</v>
+      </c>
       <c r="K57" t="s">
         <v>111</v>
       </c>
@@ -3604,6 +3779,9 @@
       <c r="H58">
         <v>4.62</v>
       </c>
+      <c r="I58">
+        <v>132.53</v>
+      </c>
       <c r="K58" t="s">
         <v>113</v>
       </c>
@@ -3636,6 +3814,9 @@
       <c r="H59">
         <v>5.28</v>
       </c>
+      <c r="I59">
+        <v>112.91</v>
+      </c>
       <c r="K59" t="s">
         <v>115</v>
       </c>
@@ -3668,6 +3849,9 @@
       <c r="H60">
         <v>6.45</v>
       </c>
+      <c r="I60">
+        <v>91.67</v>
+      </c>
       <c r="K60" t="s">
         <v>117</v>
       </c>
@@ -3700,6 +3884,9 @@
       <c r="H61">
         <v>5.76</v>
       </c>
+      <c r="I61">
+        <v>86.73</v>
+      </c>
       <c r="K61" t="s">
         <v>119</v>
       </c>
@@ -3732,6 +3919,9 @@
       <c r="H62">
         <v>2.9</v>
       </c>
+      <c r="I62">
+        <v>104.33</v>
+      </c>
       <c r="K62" t="s">
         <v>121</v>
       </c>
@@ -3764,6 +3954,9 @@
       <c r="H63">
         <v>5.31</v>
       </c>
+      <c r="I63">
+        <v>92.62</v>
+      </c>
       <c r="K63" t="s">
         <v>123</v>
       </c>
@@ -3796,6 +3989,9 @@
       <c r="H64">
         <v>3.56</v>
       </c>
+      <c r="I64">
+        <v>46.03</v>
+      </c>
       <c r="K64" t="s">
         <v>125</v>
       </c>
@@ -3828,6 +4024,9 @@
       <c r="H65">
         <v>3.15</v>
       </c>
+      <c r="I65">
+        <v>141.08000000000001</v>
+      </c>
       <c r="K65" t="s">
         <v>127</v>
       </c>
@@ -3860,6 +4059,9 @@
       <c r="H66">
         <v>4.33</v>
       </c>
+      <c r="I66">
+        <v>103.77</v>
+      </c>
       <c r="K66" t="s">
         <v>129</v>
       </c>
@@ -3892,6 +4094,9 @@
       <c r="H67">
         <v>3.82</v>
       </c>
+      <c r="I67">
+        <v>98.55</v>
+      </c>
       <c r="K67" t="s">
         <v>131</v>
       </c>
@@ -3924,6 +4129,9 @@
       <c r="H68">
         <v>4.29</v>
       </c>
+      <c r="I68">
+        <v>89.37</v>
+      </c>
       <c r="K68" t="s">
         <v>133</v>
       </c>
@@ -3956,6 +4164,9 @@
       <c r="H69">
         <v>3.88</v>
       </c>
+      <c r="I69">
+        <v>105.81</v>
+      </c>
       <c r="K69" t="s">
         <v>135</v>
       </c>
@@ -3988,6 +4199,9 @@
       <c r="H70">
         <v>5.44</v>
       </c>
+      <c r="I70">
+        <v>89.97</v>
+      </c>
       <c r="K70" t="s">
         <v>137</v>
       </c>
@@ -4020,6 +4234,9 @@
       <c r="H71">
         <v>5.0599999999999996</v>
       </c>
+      <c r="I71">
+        <v>87.8</v>
+      </c>
       <c r="K71" t="s">
         <v>139</v>
       </c>
@@ -4052,6 +4269,9 @@
       <c r="H72">
         <v>2.98</v>
       </c>
+      <c r="I72">
+        <v>108.6</v>
+      </c>
       <c r="K72" t="s">
         <v>141</v>
       </c>
@@ -4084,6 +4304,9 @@
       <c r="H73">
         <v>6.58</v>
       </c>
+      <c r="I73">
+        <v>82.35</v>
+      </c>
       <c r="K73" t="s">
         <v>143</v>
       </c>
@@ -4116,6 +4339,9 @@
       <c r="H74">
         <v>4.78</v>
       </c>
+      <c r="I74">
+        <v>101.64</v>
+      </c>
       <c r="K74" t="s">
         <v>145</v>
       </c>
@@ -4148,6 +4374,9 @@
       <c r="H75">
         <v>5.07</v>
       </c>
+      <c r="I75">
+        <v>77.349999999999994</v>
+      </c>
       <c r="K75" t="s">
         <v>147</v>
       </c>
@@ -4180,6 +4409,9 @@
       <c r="H76">
         <v>4.26</v>
       </c>
+      <c r="I76">
+        <v>118.49</v>
+      </c>
       <c r="K76" t="s">
         <v>149</v>
       </c>
@@ -4212,6 +4444,9 @@
       <c r="H77">
         <v>5.49</v>
       </c>
+      <c r="I77">
+        <v>80.739999999999995</v>
+      </c>
       <c r="K77" t="s">
         <v>151</v>
       </c>
@@ -4244,6 +4479,9 @@
       <c r="H78">
         <v>3.17</v>
       </c>
+      <c r="I78">
+        <v>132.56</v>
+      </c>
       <c r="K78" t="s">
         <v>153</v>
       </c>
@@ -4276,6 +4514,9 @@
       <c r="H79">
         <v>3.74</v>
       </c>
+      <c r="I79">
+        <v>63.89</v>
+      </c>
       <c r="K79" t="s">
         <v>155</v>
       </c>
@@ -4308,6 +4549,9 @@
       <c r="H80">
         <v>3.39</v>
       </c>
+      <c r="I80">
+        <v>92.35</v>
+      </c>
       <c r="K80" t="s">
         <v>157</v>
       </c>
@@ -4340,6 +4584,9 @@
       <c r="H81">
         <v>3.47</v>
       </c>
+      <c r="I81">
+        <v>96.72</v>
+      </c>
       <c r="K81" t="s">
         <v>159</v>
       </c>
@@ -4372,6 +4619,9 @@
       <c r="H82">
         <v>3.27</v>
       </c>
+      <c r="I82">
+        <v>98.02</v>
+      </c>
       <c r="K82" t="s">
         <v>161</v>
       </c>
@@ -4404,6 +4654,9 @@
       <c r="H83">
         <v>3.42</v>
       </c>
+      <c r="I83">
+        <v>77.98</v>
+      </c>
       <c r="K83" t="s">
         <v>163</v>
       </c>
@@ -4436,6 +4689,9 @@
       <c r="H84">
         <v>3.29</v>
       </c>
+      <c r="I84">
+        <v>101.08</v>
+      </c>
       <c r="K84" t="s">
         <v>165</v>
       </c>
@@ -4468,6 +4724,9 @@
       <c r="H85">
         <v>3.47</v>
       </c>
+      <c r="I85">
+        <v>105.12</v>
+      </c>
       <c r="K85" t="s">
         <v>167</v>
       </c>
@@ -4500,6 +4759,9 @@
       <c r="H86">
         <v>4.87</v>
       </c>
+      <c r="I86">
+        <v>102.09</v>
+      </c>
       <c r="K86" t="s">
         <v>169</v>
       </c>
@@ -4532,6 +4794,9 @@
       <c r="H87">
         <v>4.91</v>
       </c>
+      <c r="I87">
+        <v>88.88</v>
+      </c>
       <c r="K87" t="s">
         <v>171</v>
       </c>
@@ -4564,6 +4829,9 @@
       <c r="H88">
         <v>3.95</v>
       </c>
+      <c r="I88">
+        <v>86.85</v>
+      </c>
       <c r="K88" t="s">
         <v>173</v>
       </c>
@@ -4596,6 +4864,9 @@
       <c r="H89">
         <v>6.83</v>
       </c>
+      <c r="I89">
+        <v>81.8</v>
+      </c>
       <c r="K89" t="s">
         <v>175</v>
       </c>
@@ -4628,6 +4899,9 @@
       <c r="H90">
         <v>3.42</v>
       </c>
+      <c r="I90">
+        <v>81.819999999999993</v>
+      </c>
       <c r="K90" t="s">
         <v>177</v>
       </c>
@@ -4660,6 +4934,9 @@
       <c r="H91">
         <v>4.4800000000000004</v>
       </c>
+      <c r="I91">
+        <v>81.12</v>
+      </c>
       <c r="K91" t="s">
         <v>179</v>
       </c>
@@ -4692,6 +4969,9 @@
       <c r="H92">
         <v>3.29</v>
       </c>
+      <c r="I92">
+        <v>110.22</v>
+      </c>
       <c r="K92" t="s">
         <v>181</v>
       </c>
@@ -4724,6 +5004,9 @@
       <c r="H93">
         <v>6.62</v>
       </c>
+      <c r="I93">
+        <v>102.76</v>
+      </c>
       <c r="K93" t="s">
         <v>183</v>
       </c>
@@ -4756,6 +5039,9 @@
       <c r="H94">
         <v>3.09</v>
       </c>
+      <c r="I94">
+        <v>117.35</v>
+      </c>
       <c r="K94" t="s">
         <v>185</v>
       </c>
@@ -4788,6 +5074,9 @@
       <c r="H95">
         <v>4.4400000000000004</v>
       </c>
+      <c r="I95">
+        <v>100.55</v>
+      </c>
       <c r="K95" t="s">
         <v>187</v>
       </c>
@@ -4820,6 +5109,9 @@
       <c r="H96">
         <v>3.06</v>
       </c>
+      <c r="I96">
+        <v>105.34</v>
+      </c>
       <c r="K96" t="s">
         <v>189</v>
       </c>
@@ -4852,6 +5144,9 @@
       <c r="H97">
         <v>3.58</v>
       </c>
+      <c r="I97">
+        <v>131.97</v>
+      </c>
       <c r="K97" t="s">
         <v>191</v>
       </c>
@@ -4884,6 +5179,9 @@
       <c r="H98">
         <v>4.8899999999999997</v>
       </c>
+      <c r="I98">
+        <v>84.89</v>
+      </c>
       <c r="K98" t="s">
         <v>193</v>
       </c>
@@ -4916,6 +5214,9 @@
       <c r="H99">
         <v>3.42</v>
       </c>
+      <c r="I99">
+        <v>92.22</v>
+      </c>
       <c r="K99" t="s">
         <v>195</v>
       </c>
@@ -4948,6 +5249,9 @@
       <c r="H100">
         <v>6.67</v>
       </c>
+      <c r="I100">
+        <v>110.39</v>
+      </c>
       <c r="K100" t="s">
         <v>197</v>
       </c>
@@ -4979,6 +5283,9 @@
       </c>
       <c r="H101">
         <v>4.3099999999999996</v>
+      </c>
+      <c r="I101">
+        <v>49.13</v>
       </c>
       <c r="K101" t="s">
         <v>199</v>
@@ -4993,7 +5300,7 @@
         <v>5.2131000000000007</v>
       </c>
       <c r="B102">
-        <f t="shared" ref="B102:J102" si="0">AVERAGE(B2:B101)</f>
+        <f t="shared" ref="B102:H102" si="0">AVERAGE(B2:B101)</f>
         <v>9.9351000000000074</v>
       </c>
       <c r="C102">
@@ -5019,6 +5326,10 @@
       <c r="H102">
         <f t="shared" si="0"/>
         <v>5.1134999999999984</v>
+      </c>
+      <c r="I102">
+        <f>AVERAGE(I2:I101)</f>
+        <v>96.30149999999999</v>
       </c>
     </row>
   </sheetData>
